--- a/Hitungan Clean.xlsx
+++ b/Hitungan Clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\sem 3\Statistics for Business\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59342A02-A905-4635-8178-7DC037B28760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A7DD8D-8D28-4333-8446-7EC1AA08E1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
   <si>
     <t>Laki - Laki</t>
   </si>
@@ -306,7 +306,7 @@
       <name val="MJXc-TeX-main-R"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +346,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -430,6 +442,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2432,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4516F151-E959-4ED5-9720-092911EE5758}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,9 +2463,11 @@
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -2458,7 +2475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:12" ht="18">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2475,8 +2492,12 @@
         <v>44</v>
       </c>
       <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" thickBot="1">
+      <c r="K2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2488,8 +2509,10 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="18">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="18">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -2512,8 +2535,14 @@
       <c r="I4" s="10">
         <v>705160</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18">
+      <c r="K4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="13">
+        <v>536103.44827586203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -2538,8 +2567,14 @@
       <c r="I5" s="10">
         <v>89672.881073376921</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18">
+      <c r="K5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="13">
+        <v>41620.265964842212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -2564,8 +2599,14 @@
       <c r="I6" s="10">
         <v>550000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18">
+      <c r="K6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="13">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18">
       <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
@@ -2590,8 +2631,14 @@
       <c r="I7" s="10">
         <v>550000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18">
+      <c r="K7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="13">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18">
       <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
@@ -2614,8 +2661,14 @@
       <c r="I8" s="10">
         <v>448364.4053668846</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18">
+      <c r="K8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="13">
+        <v>224131.99153744627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18">
       <c r="A9" s="19" t="s">
         <v>0</v>
       </c>
@@ -2638,8 +2691,14 @@
       <c r="I9" s="10">
         <v>201030640000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18">
+      <c r="K9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="13">
+        <v>50235149630.541885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18">
       <c r="A10" s="19" t="s">
         <v>0</v>
       </c>
@@ -2662,8 +2721,14 @@
       <c r="I10" s="10">
         <v>5.8545263560941798</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18">
+      <c r="K10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1.7224310440588257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18">
       <c r="A11" s="19" t="s">
         <v>0</v>
       </c>
@@ -2686,8 +2751,14 @@
       <c r="I11" s="10">
         <v>2.1571210782853543</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18">
+      <c r="K11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1.1843794336915501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18">
       <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
@@ -2710,8 +2781,14 @@
       <c r="I12" s="10">
         <v>2045000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18">
+      <c r="K12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="13">
+        <v>957500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18">
       <c r="A13" s="19" t="s">
         <v>0</v>
       </c>
@@ -2734,8 +2811,14 @@
       <c r="I13" s="10">
         <v>250000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" thickBot="1">
+      <c r="K13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="13">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>0</v>
       </c>
@@ -2758,8 +2841,14 @@
       <c r="I14" s="10">
         <v>2295000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18">
+      <c r="K14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1180000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -2775,8 +2864,14 @@
       <c r="I15" s="10">
         <v>17629000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18">
+      <c r="K15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="13">
+        <v>15547000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18">
       <c r="A16" s="19" t="s">
         <v>0</v>
       </c>
@@ -2795,8 +2890,14 @@
       <c r="I16" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" thickBot="1">
+      <c r="K16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" thickBot="1">
       <c r="A17" s="19" t="s">
         <v>0</v>
       </c>
@@ -2815,8 +2916,14 @@
       <c r="I17" s="11">
         <v>185075.7302643836</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="18">
+      <c r="K17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="14">
+        <v>85255.250045800334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18">
       <c r="A18" s="21" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +2937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18">
+    <row r="19" spans="1:12" ht="18">
       <c r="A19" s="19" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +2951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18">
+    <row r="20" spans="1:12" ht="18">
       <c r="A20" s="19" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2962,7 @@
         <v>37962625600</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18">
+    <row r="21" spans="1:12" ht="18">
       <c r="A21" s="19" t="s">
         <v>0</v>
       </c>
@@ -2873,7 +2980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18">
+    <row r="22" spans="1:12" ht="18">
       <c r="A22" s="19" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +2998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18">
+    <row r="23" spans="1:12" ht="18">
       <c r="A23" s="19" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +3009,7 @@
         <v>86930625600</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:12" ht="18">
       <c r="A24" s="19" t="s">
         <v>0</v>
       </c>
@@ -2913,7 +3020,7 @@
         <v>216076225600</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18">
+    <row r="25" spans="1:12" ht="18">
       <c r="A25" s="19" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +3031,7 @@
         <v>631770625600</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18">
+    <row r="26" spans="1:12" ht="18">
       <c r="A26" s="19" t="s">
         <v>0</v>
       </c>
@@ -2935,241 +3042,362 @@
         <v>2527591225600</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:12">
       <c r="A27" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="23">
+        <v>222500</v>
+      </c>
+      <c r="C27">
+        <f>(B27-536103.4483)^2</f>
+        <v>98347122785.650803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="28">
+        <v>240000</v>
+      </c>
+      <c r="C28">
+        <f>(B28-536103.4483)^2</f>
+        <v>87677252095.150803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="28">
+        <v>240000</v>
+      </c>
+      <c r="C29">
+        <f>(B29-536103.4483)^2</f>
+        <v>87677252095.150803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="23">
+        <v>340000</v>
+      </c>
+      <c r="C30">
+        <f>(B30-536103.4483)^2</f>
+        <v>38456562435.150795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="23">
+        <v>345000</v>
+      </c>
+      <c r="C31">
+        <f>(B31-536103.4483)^2</f>
+        <v>36520527952.150787</v>
+      </c>
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23">
         <v>350000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="23">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="23">
+      <c r="C32">
+        <f>(B32-536103.4483)^2</f>
+        <v>34634493469.150787</v>
+      </c>
+      <c r="D32">
+        <f>SUM(C27:C55)</f>
+        <v>1406584189655.1724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="23">
+        <v>354000</v>
+      </c>
+      <c r="C33">
+        <f>(B33-536103.4483)^2</f>
+        <v>33161665882.75079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23">
         <v>406000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="23">
-        <v>354000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="23">
-        <v>465000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="23">
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="23">
-        <v>1180000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f>(B34-536103.4483)^2</f>
+        <v>16926907259.550785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="23">
         <v>430000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f>(B35-536103.4483)^2</f>
+        <v>11257941741.150784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="23">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" s="28">
+        <v>450000</v>
+      </c>
+      <c r="C36">
+        <f>(B36-536103.4483)^2</f>
+        <v>7413803809.1507807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="28">
+        <v>450000</v>
+      </c>
+      <c r="C37">
+        <f>(B37-536103.4483)^2</f>
+        <v>7413803809.1507807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="28">
+        <v>450000</v>
+      </c>
+      <c r="C38">
+        <f>(B38-536103.4483)^2</f>
+        <v>7413803809.1507807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="29">
+        <v>465000</v>
+      </c>
+      <c r="C39">
+        <f>(B39-536103.4483)^2</f>
+        <v>5055700360.1507797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="29">
+        <v>465000</v>
+      </c>
+      <c r="C40">
+        <f>(B40-536103.4483)^2</f>
+        <v>5055700360.1507797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="23">
+        <v>490000</v>
+      </c>
+      <c r="C41">
+        <f>(B41-536103.4483)^2</f>
+        <v>2125527945.1507773</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="23">
+        <v>500000</v>
+      </c>
+      <c r="C42">
+        <f>(B42-536103.4483)^2</f>
+        <v>1303458979.1507764</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="23">
+        <v>525000</v>
+      </c>
+      <c r="C43">
+        <f>(B43-536103.4483)^2</f>
+        <v>123286564.15077394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="23">
+        <v>556500</v>
+      </c>
+      <c r="C44">
+        <f>(B44-536103.4483)^2</f>
+        <v>416019321.25077099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="28">
+        <v>560000</v>
+      </c>
+      <c r="C45">
+        <f>(B45-536103.4483)^2</f>
+        <v>571045183.15077066</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="28">
+        <v>560000</v>
+      </c>
+      <c r="C46">
+        <f>(B46-536103.4483)^2</f>
+        <v>571045183.15077066</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="23">
+        <v>600000</v>
+      </c>
+      <c r="C47">
+        <f>(B47-536103.4483)^2</f>
+        <v>4082769319.1507668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="23">
+        <v>603000</v>
+      </c>
+      <c r="C48">
+        <f>(B48-536103.4483)^2</f>
+        <v>4475148629.3507662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="23">
         <v>675000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="23">
+      <c r="C49">
+        <f>(B49-536103.4483)^2</f>
+        <v>19292252074.150761</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23">
+        <v>700000</v>
+      </c>
+      <c r="C50">
+        <f>(B50-536103.4483)^2</f>
+        <v>26862079659.150757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="23">
         <v>720000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="23">
+      <c r="C51">
+        <f>(B51-536103.4483)^2</f>
+        <v>33817941727.150757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="23">
+        <v>750000</v>
+      </c>
+      <c r="C52">
+        <f>(B52-536103.4483)^2</f>
+        <v>45751734829.150749</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="23">
         <v>870000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="23">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="23">
-        <v>525000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="23">
-        <v>490000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="23">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="23">
-        <v>603000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="23">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="23">
-        <v>345000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="23">
-        <v>222500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="23">
-        <v>556500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="23">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="23">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="23">
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="23">
-        <v>465000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="23">
-        <v>340000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <f>(B53-536103.4483)^2</f>
+        <v>111486907237.15074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="23">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1050000</v>
+      </c>
+      <c r="C54">
+        <f>(B54-536103.4483)^2</f>
+        <v>264089665849.15073</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="23">
-        <v>600000</v>
+        <v>1180000</v>
+      </c>
+      <c r="C55">
+        <f>(B55-536103.4483)^2</f>
+        <v>414602769291.1507</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B26">
-    <sortCondition ref="B2"/>
+  <sortState ref="B27:C55">
+    <sortCondition ref="B27:B55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Hitungan Clean.xlsx
+++ b/Hitungan Clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\sem 3\Statistics for Business\UAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Semester 3\Statistic\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59342A02-A905-4635-8178-7DC037B28760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A18403-FA59-4372-919F-95E222C086E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Gender" sheetId="3" r:id="rId3"/>
     <sheet name="Days" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="48">
   <si>
     <t>Laki - Laki</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>ce</t>
+  </si>
+  <si>
+    <t>Confidence Level(95.0%)</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -430,6 +433,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,16 +721,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -746,7 +755,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1">
+    <row r="18" spans="1:14" ht="15" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1981,14 +1990,14 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2008,7 +2017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="1">
         <f>(General!B3*General!C3*5)+(General!D3*General!E3*2)</f>
         <v>1050000</v>
@@ -2153,7 +2162,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1">
       <c r="A14" s="1">
         <f>(General!B14*General!C14*5)+(General!D14*General!E14*2)</f>
         <v>330000</v>
@@ -2434,23 +2443,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4516F151-E959-4ED5-9720-092911EE5758}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -2458,7 +2467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:9" ht="17.5">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2485,7 @@
       </c>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" thickBot="1">
+    <row r="3" spans="1:9" ht="18" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2498,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:9" ht="17.5">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2522,7 @@
         <v>705160</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:9" ht="17.5">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2548,7 @@
         <v>89672.881073376921</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="17.5">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18">
+    <row r="7" spans="1:9" ht="17.5">
       <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18">
+    <row r="8" spans="1:9" ht="17.5">
       <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +2624,7 @@
         <v>448364.4053668846</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18">
+    <row r="9" spans="1:9" ht="17.5">
       <c r="A9" s="19" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2648,7 @@
         <v>201030640000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18">
+    <row r="10" spans="1:9" ht="17.5">
       <c r="A10" s="19" t="s">
         <v>0</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>5.8545263560941798</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18">
+    <row r="11" spans="1:9" ht="17.5">
       <c r="A11" s="19" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>2.1571210782853543</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18">
+    <row r="12" spans="1:9" ht="17.5">
       <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
@@ -2711,7 +2720,7 @@
         <v>2045000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18">
+    <row r="13" spans="1:9" ht="17.5">
       <c r="A13" s="19" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" thickBot="1">
+    <row r="14" spans="1:9" ht="18" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18">
+    <row r="15" spans="1:9" ht="17.5">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v>17629000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18">
+    <row r="16" spans="1:9" ht="17.5">
       <c r="A16" s="19" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" thickBot="1">
+    <row r="17" spans="1:9" ht="18" thickBot="1">
       <c r="A17" s="19" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>185075.7302643836</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18">
+    <row r="18" spans="1:9" ht="17.5">
       <c r="A18" s="21" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +2839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18">
+    <row r="19" spans="1:9" ht="17.5">
       <c r="A19" s="19" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +2853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18">
+    <row r="20" spans="1:9" ht="17.5">
       <c r="A20" s="19" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>37962625600</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18">
+    <row r="21" spans="1:9" ht="17.5">
       <c r="A21" s="19" t="s">
         <v>0</v>
       </c>
@@ -2873,7 +2882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18">
+    <row r="22" spans="1:9" ht="17.5">
       <c r="A22" s="19" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18">
+    <row r="23" spans="1:9" ht="17.5">
       <c r="A23" s="19" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>86930625600</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:9" ht="17.5">
       <c r="A24" s="19" t="s">
         <v>0</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>216076225600</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18">
+    <row r="25" spans="1:9" ht="17.5">
       <c r="A25" s="19" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>631770625600</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18">
+    <row r="26" spans="1:9" ht="17.5">
       <c r="A26" s="19" t="s">
         <v>0</v>
       </c>
@@ -3168,7 +3177,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B26">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3178,20 +3187,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0C3EEA-63C9-4E73-87B7-A8BAB28DCF06}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
@@ -3199,47 +3214,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:11">
       <c r="A2" s="7">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="7">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="B3" s="7">
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4" s="7">
+        <v>15000</v>
+      </c>
+      <c r="B4" s="7">
         <v>45000</v>
-      </c>
-      <c r="B4" s="7">
-        <v>120000</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="7">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="B5" s="7">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7">
-        <v>12000</v>
-      </c>
-      <c r="B6" s="7">
-        <v>29000</v>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>16000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20000</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -3248,13 +3266,20 @@
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="7">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="B7" s="7">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>15</v>
@@ -3265,13 +3290,22 @@
       <c r="G7" s="10">
         <v>44500</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7">
-        <v>25000</v>
-      </c>
-      <c r="B8" s="7">
-        <v>75000</v>
+      <c r="I7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="10">
+        <v>44500</v>
+      </c>
+      <c r="K7" s="10">
+        <v>32055.555555555555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="28">
+        <v>18000</v>
+      </c>
+      <c r="B8" s="28">
+        <v>38000</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>25</v>
@@ -3282,8 +3316,17 @@
       <c r="G8" s="10">
         <v>913679245.28301883</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="10">
+        <v>913679245.28301883</v>
+      </c>
+      <c r="K8" s="10">
+        <v>321968553.45911956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="7">
         <v>19000</v>
       </c>
@@ -3299,13 +3342,22 @@
       <c r="G9" s="10">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7">
-        <v>15000</v>
-      </c>
-      <c r="B10" s="7">
-        <v>50000</v>
+      <c r="I9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="10">
+        <v>54</v>
+      </c>
+      <c r="K9" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>19000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>30000</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>27</v>
@@ -3314,13 +3366,20 @@
         <v>0</v>
       </c>
       <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="7">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B11" s="7">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>28</v>
@@ -3329,13 +3388,20 @@
         <v>86</v>
       </c>
       <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="10">
+        <v>86</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="7">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="B12" s="7">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>29</v>
@@ -3344,13 +3410,20 @@
         <v>-2.6015072660628835</v>
       </c>
       <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2.6015072660628835</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="7">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="B13" s="7">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>30</v>
@@ -3359,13 +3432,20 @@
         <v>5.4633230765970889E-3</v>
       </c>
       <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7">
-        <v>15000</v>
-      </c>
-      <c r="B14" s="7">
-        <v>45000</v>
+      <c r="I13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="10">
+        <v>5.4633230765970889E-3</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20000</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>31</v>
@@ -3374,13 +3454,20 @@
         <v>1.662765449409072</v>
       </c>
       <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7">
+      <c r="I14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1.662765449409072</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>20000</v>
       </c>
-      <c r="B15" s="7">
-        <v>40000</v>
+      <c r="B15" s="2">
+        <v>35000</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>32</v>
@@ -3389,12 +3476,19 @@
         <v>1.0926646153194178E-2</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A16" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="I15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.0926646153194178E-2</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
+      <c r="A16" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B16" s="2">
         <v>30000</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -3404,332 +3498,452 @@
         <v>1.987934206239018</v>
       </c>
       <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7">
+      <c r="I16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1.987934206239018</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>20000</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7">
-        <v>55000</v>
-      </c>
-      <c r="B18" s="7">
-        <v>100000</v>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B18" s="2">
+        <v>35000</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7">
-        <v>30000</v>
-      </c>
-      <c r="B19" s="7">
-        <v>30000</v>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <v>23000</v>
+      </c>
+      <c r="B19" s="4">
+        <v>90000</v>
       </c>
       <c r="E19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7">
-        <v>15000</v>
-      </c>
-      <c r="B20" s="7">
-        <v>55000</v>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>23000</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="7">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="B21" s="7">
-        <v>35000</v>
+        <v>39000</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="7">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="B22" s="7">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="7">
-        <v>105000</v>
+        <v>25000</v>
       </c>
       <c r="B23" s="7">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7">
-        <v>45000</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>25000</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="2">
+        <v>25000</v>
+      </c>
+      <c r="B25" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>25000</v>
+      </c>
+      <c r="B26" s="2">
+        <v>38000</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>25000</v>
+      </c>
+      <c r="B27" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>26500</v>
+      </c>
+      <c r="B28" s="2">
+        <v>26500</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10">
+        <v>32055.555555555555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>29000</v>
+      </c>
+      <c r="B29" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2441.7986443630693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7">
         <v>30000</v>
-      </c>
-      <c r="B25" s="7">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7">
-        <v>45000</v>
-      </c>
-      <c r="B26" s="7">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7">
-        <v>45000</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B28" s="7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7">
-        <v>60000</v>
-      </c>
-      <c r="B29" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7">
-        <v>25000</v>
       </c>
       <c r="B30" s="7">
         <v>100000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="10">
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="7">
         <v>30000</v>
       </c>
       <c r="B31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5">
-        <v>18000</v>
-      </c>
-      <c r="B32" s="5">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
-        <v>25000</v>
-      </c>
-      <c r="B33" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="10">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="29">
+        <v>30000</v>
+      </c>
+      <c r="B32" s="29">
+        <v>45000</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="10">
+        <v>17943.482199927625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7">
+        <v>30000</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10">
+        <v>321968553.45911956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>30000</v>
+      </c>
+      <c r="B34" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
-        <v>20000</v>
-      </c>
-      <c r="B34" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="10">
+        <v>7.3732003979225187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="B35" s="2">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2.3995602665126667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="B36" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="10">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
+        <v>32500</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="10">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7">
         <v>35000</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="10">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7">
         <v>35000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
-        <v>20000</v>
-      </c>
-      <c r="B38" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
-        <v>20000</v>
-      </c>
-      <c r="B39" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4">
-        <v>23000</v>
-      </c>
-      <c r="B40" s="4">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B39" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1731000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>35000</v>
+      </c>
+      <c r="B40" s="2">
+        <v>35000</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1">
       <c r="A41" s="2">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="B41" s="2">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>35000</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="11">
+        <v>4897.6278523038291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>35000</v>
       </c>
       <c r="B42" s="2">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="7">
+        <v>40000</v>
+      </c>
+      <c r="B43" s="7">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>40000</v>
+      </c>
+      <c r="B44" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B45" s="7">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B47" s="7">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7">
+        <v>50000</v>
+      </c>
+      <c r="B49" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7">
+        <v>50000</v>
+      </c>
+      <c r="B50" s="7">
         <v>30000</v>
       </c>
-      <c r="B43" s="2">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7">
         <v>50000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
-        <v>25000</v>
-      </c>
-      <c r="B44" s="2">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="B51" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7">
+        <v>55000</v>
+      </c>
+      <c r="B52" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7">
+        <v>60000</v>
+      </c>
+      <c r="B53" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B54" s="7">
         <v>30000</v>
       </c>
-      <c r="B45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
-        <v>23000</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
-        <v>32500</v>
-      </c>
-      <c r="B47" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
-        <v>26500</v>
-      </c>
-      <c r="B48" s="2">
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
-        <v>25000</v>
-      </c>
-      <c r="B49" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
-        <v>16000</v>
-      </c>
-      <c r="B50" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
-        <v>35000</v>
-      </c>
-      <c r="B51" s="2">
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
-        <v>19000</v>
-      </c>
-      <c r="B52" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
-        <v>20000</v>
-      </c>
-      <c r="B53" s="2">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>30000</v>
-      </c>
-      <c r="B54" s="2">
-        <v>50000</v>
-      </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>40000</v>
-      </c>
-      <c r="B55" s="2">
-        <v>50000</v>
+      <c r="A55" s="7">
+        <v>105000</v>
+      </c>
+      <c r="B55" s="7">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f>SUM(A2:A55)</f>
+        <v>1731000</v>
+      </c>
+      <c r="B56">
+        <f>SUM(B2:B55)</f>
+        <v>2403000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="30">
+        <f>AVERAGE(A2:A55)</f>
+        <v>32055.555555555555</v>
+      </c>
+      <c r="B57" s="31">
+        <f>AVERAGE(B2:B55)</f>
+        <v>44500</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B55">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
